--- a/card_data/D/ESC.xlsx
+++ b/card_data/D/ESC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryaanahmed\dev\french-playing-cards\card_data\D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54284EAB-43D7-8D47-8482-D5030EC9B1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23574786-B964-43C8-BDC1-AE82C414653D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17180" windowHeight="16440" xr2:uid="{CE2FDC2A-7548-B946-A288-0CC89512212C}"/>
+    <workbookView xWindow="0" yWindow="503" windowWidth="17183" windowHeight="16440" xr2:uid="{CE2FDC2A-7548-B946-A288-0CC89512212C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="50">
   <si>
     <t>Card</t>
   </si>
@@ -67,9 +60,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -92,24 +82,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>ESC.AC.1</t>
-  </si>
-  <si>
-    <t>ESC.AC.2</t>
-  </si>
-  <si>
-    <t>ESC.AD.1</t>
-  </si>
-  <si>
-    <t>ESC.AD.2</t>
-  </si>
-  <si>
-    <t>ESC.AS.1</t>
-  </si>
-  <si>
-    <t>ESC.AS.2</t>
   </si>
   <si>
     <t>ESC.JC.1</t>
@@ -564,21 +536,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12460001-25AC-2F48-B939-A0BEC1246E5F}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6875" customWidth="1"/>
+    <col min="2" max="2" width="15.1875" customWidth="1"/>
+    <col min="5" max="5" width="38.8125" customWidth="1"/>
+    <col min="11" max="11" width="20.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -616,21 +588,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>1791</v>
@@ -639,33 +611,33 @@
         <v>1794</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>1791</v>
@@ -674,33 +646,33 @@
         <v>1794</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1791</v>
@@ -709,33 +681,33 @@
         <v>1794</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>1791</v>
@@ -744,33 +716,33 @@
         <v>1794</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>1791</v>
@@ -779,33 +751,33 @@
         <v>1794</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>1791</v>
@@ -814,33 +786,33 @@
         <v>1794</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>1791</v>
@@ -849,33 +821,33 @@
         <v>1794</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>1791</v>
@@ -884,33 +856,33 @@
         <v>1794</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>1791</v>
@@ -919,33 +891,33 @@
         <v>1794</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>1791</v>
@@ -954,33 +926,33 @@
         <v>1794</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>1791</v>
@@ -989,33 +961,33 @@
         <v>1794</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>1791</v>
@@ -1024,33 +996,33 @@
         <v>1794</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>1791</v>
@@ -1059,33 +1031,33 @@
         <v>1794</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>1791</v>
@@ -1094,33 +1066,33 @@
         <v>1794</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>1791</v>
@@ -1129,33 +1101,33 @@
         <v>1794</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>1791</v>
@@ -1164,33 +1136,33 @@
         <v>1794</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>1791</v>
@@ -1199,33 +1171,33 @@
         <v>1794</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>1791</v>
@@ -1234,33 +1206,33 @@
         <v>1794</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>1791</v>
@@ -1269,33 +1241,33 @@
         <v>1794</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>1791</v>
@@ -1304,33 +1276,33 @@
         <v>1794</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>1791</v>
@@ -1339,33 +1311,33 @@
         <v>1794</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>1791</v>
@@ -1374,33 +1346,33 @@
         <v>1794</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>1791</v>
@@ -1409,33 +1381,33 @@
         <v>1794</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>1791</v>
@@ -1444,226 +1416,16 @@
         <v>1794</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26">
-        <v>1791</v>
-      </c>
-      <c r="G26">
-        <v>1794</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>1791</v>
-      </c>
-      <c r="G27">
-        <v>1794</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>1791</v>
-      </c>
-      <c r="G28">
-        <v>1794</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <v>1791</v>
-      </c>
-      <c r="G29">
-        <v>1794</v>
-      </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>1791</v>
-      </c>
-      <c r="G30">
-        <v>1794</v>
-      </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>1791</v>
-      </c>
-      <c r="G31">
-        <v>1794</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
